--- a/data/trans_dic/P25_9-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_9-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece mala circulación</t>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -637,7 +662,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +672,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 16,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 27,99</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,52</t>
+          <t>0,0; 13,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 8,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 14,7</t>
+          <t>0,0; 17,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,91</t>
+          <t>0,0; 7,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,19</t>
         </is>
       </c>
     </row>
@@ -742,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,32 +812,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,45</t>
+          <t>0,0; 9,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 18,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 17,92</t>
+          <t>5,29; 23,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 15,42</t>
+          <t>5,36; 23,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,02</t>
+          <t>5,32; 22,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,92</t>
+          <t>5,59; 28,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,47</t>
+          <t>3,37; 14,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 11,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 10,8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 13,27</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>10,17%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,84</t>
+          <t>0,0; 11,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,67; 19,64</t>
+          <t>0,0; 11,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 16,7</t>
+          <t>8,66; 21,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 15,78</t>
+          <t>7,03; 19,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 11,85</t>
+          <t>5,34; 16,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 14,22</t>
+          <t>9,29; 23,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,44</t>
+          <t>6,18; 15,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 12,99</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 9,87</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 16,31</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11,92%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 12,06</t>
+          <t>2,23; 11,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 12,43</t>
+          <t>2,63; 14,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 10,29</t>
+          <t>0,99; 11,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 29,4</t>
+          <t>5,69; 21,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 29,53</t>
+          <t>19,03; 37,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,1; 27,97</t>
+          <t>15,24; 31,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,66; 19,5</t>
+          <t>12,47; 27,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 20,3</t>
+          <t>13,59; 28,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,46</t>
+          <t>12,6; 23,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 20,89</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 17,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11,83; 22,52</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 10,71</t>
+          <t>1,33; 12,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 11,14</t>
+          <t>2,87; 16,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 13,28</t>
+          <t>1,43; 13,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,84; 29,65</t>
+          <t>5,88; 24,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 28,06</t>
+          <t>14,38; 38,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,14; 29,35</t>
+          <t>13,4; 37,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,95; 18,14</t>
+          <t>13,62; 37,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 17,62</t>
+          <t>19,76; 47,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,17; 18,2</t>
+          <t>8,27; 21,14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,67; 22,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,45; 21,65</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 31,15</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18,99%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>26,31%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>44,37%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 26,65</t>
+          <t>6,92; 29,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,07; 18,32</t>
+          <t>0,0; 15,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,99; 19,62</t>
+          <t>4,71; 26,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,71; 48,33</t>
+          <t>16,42; 45,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,42; 37,77</t>
+          <t>18,61; 46,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,97; 40,86</t>
+          <t>18,89; 47,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,27; 35,48</t>
+          <t>23,6; 54,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,57; 27,72</t>
+          <t>37,99; 69,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,57; 30,73</t>
+          <t>14,33; 32,53</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 29,09</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>18,25; 36,36</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34,28; 57,93</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9,64%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,0</t>
+          <t>2,94; 7,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,58</t>
+          <t>2,09; 5,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,94</t>
+          <t>1,55; 5,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,6; 22,17</t>
+          <t>5,89; 12,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,77; 19,85</t>
+          <t>15,26; 22,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,13; 19,8</t>
+          <t>13,84; 21,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,01</t>
+          <t>12,66; 19,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,15</t>
+          <t>18,92; 29,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,19</t>
+          <t>9,96; 15,02</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 13,23</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 11,95</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,43; 19,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5154</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7995</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5154</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17953</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16275</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25648</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18402</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17672</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26778</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21219</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15329</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15700</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22412</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24225</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15329</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15700</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22412</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16837</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8739; 39505</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6795; 29665</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6714; 28759</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9075; 45779</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11252; 49647</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6863; 31970</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5989; 30316</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8048; 51763</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5377</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6626</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>37943</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25747</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18959</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37567</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43319</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25747</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18959</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44193</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19066</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20705</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22869; 56435</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14712; 40585</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10703; 32371</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22264; 57095</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26353; 65100</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15217; 44668</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9887; 33371</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27658; 68487</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9339</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11651</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5777</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23530</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60807</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>42848</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33391</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43739</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>70146</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>54499</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>39168</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>67269</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4100; 21214</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4233; 23938</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1549; 17191</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11309; 42448</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>41122; 80454</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28335; 58159</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21497; 47628</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28906; 61233</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>50382; 93814</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>37217; 72527</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25951; 56361</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>48640; 92616</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8784</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10683</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>20233</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28355</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>22667</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21841</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45123</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>37139</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>33350</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>28949</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>65356</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2101; 19084</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3788; 22179</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1760; 16341</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9088; 37236</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16367; 44205</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12574; 34960</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12622; 34794</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27083; 65006</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22437; 57339</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21835; 51003</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18235; 46744</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>42432; 90862</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16823</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4183</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11548</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>41893</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>41469</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>32365</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>41270</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>100078</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>58292</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>36548</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>52818</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>141971</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7564; 31964</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13290</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4245; 24229</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>22636; 63290</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>25614; 63527</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19865; 50084</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26102; 60583</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>69206; 126951</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>35394; 80322</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22188; 55990</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>36638; 72980</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>109707; 185388</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>43328</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>26517</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>24433</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>92282</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>193435</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>144110</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>131161</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>256914</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>236763</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>170626</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>155594</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>349196</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>26126; 68136</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>15998; 44059</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12196; 42469</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>61519; 128019</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>157242; 236339</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>116418; 177298</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>104454; 161919</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>204251; 314793</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>191090; 288252</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>138185; 212342</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>122863; 192904</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>285340; 420514</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>